--- a/Documents/DIYANA/ICPMS/121124(1)/DATA ANALYSIS 121124(1).xlsx
+++ b/Documents/DIYANA/ICPMS/121124(1)/DATA ANALYSIS 121124(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JOE-PC\Users\Gunasama\Documents\DIYANA\ICPMS\121124(1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF5F161-6741-4800-8DFA-5334BB3742F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7E01A7-D159-4B3E-8057-C5575AB31AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,6 +707,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,9 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,53 +1103,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14"/>
       <c r="S1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1174,8 +1174,8 @@
       <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="5" t="s">
         <v>11</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="8">
-        <v>2024100199</v>
+        <v>2024100200</v>
       </c>
       <c r="C58" s="2">
         <v>111.372</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="8">
-        <v>2024100199</v>
+        <v>2024100200</v>
       </c>
       <c r="M58" s="2">
         <v>4538.8559999999998</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="8">
-        <v>2024100200</v>
+        <v>2024100204</v>
       </c>
       <c r="C60" s="2">
         <v>110.2418</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="8">
-        <v>2024100200</v>
+        <v>2024100204</v>
       </c>
       <c r="M60" s="2">
         <v>4484.8419999999996</v>
@@ -5219,17 +5219,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
